--- a/data/schedule_template.xlsx
+++ b/data/schedule_template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismankrn/Documents/Sync/telkom_university/humic_rc/kp/berita_acara_sidang/formSidang-master-v2/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ismankrn/Documents/Sync/telkom_university/humic_rc/kerja_praktek/berita_acara_sidang/formSidang-master-v4/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DFED75D-6A30-C949-B59B-A0C2A14466CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4DE867-ED24-894E-B54C-2B3C412027D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -854,9 +854,6 @@
     <t>ADAM TUA RAHMAN HAKIM SIREGAR</t>
   </si>
   <si>
-    <t>Keterangan</t>
-  </si>
-  <si>
     <t>KK</t>
   </si>
   <si>
@@ -923,9 +920,6 @@
     <t>Judul</t>
   </si>
   <si>
-    <t>Waktu</t>
-  </si>
-  <si>
     <t>Pukul</t>
   </si>
   <si>
@@ -933,6 +927,12 @@
   </si>
   <si>
     <t>E-mail</t>
+  </si>
+  <si>
+    <t>Tanggal</t>
+  </si>
+  <si>
+    <t>Skema sidang</t>
   </si>
 </sst>
 </file>
@@ -1646,7 +1646,9 @@
   </sheetPr>
   <dimension ref="A1:N260"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="75" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="16"/>
   <cols>
@@ -1668,46 +1670,46 @@
   <sheetData>
     <row r="1" spans="1:14" s="22" customFormat="1" ht="38" customHeight="1">
       <c r="A1" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>287</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>288</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>296</v>
+      </c>
+      <c r="L1" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="M1" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>272</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>289</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="K1" s="14" t="s">
+      <c r="N1" s="12" t="s">
         <v>294</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>295</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="2" spans="1:14">
@@ -2066,13 +2068,13 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
         <v>285</v>
-      </c>
-      <c r="D1" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2083,7 +2085,7 @@
         <v>1301160087</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E2">
         <v>1301164045</v>
@@ -2101,7 +2103,7 @@
         <v>1301164504</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E3">
         <v>1301164036</v>
@@ -2743,7 +2745,7 @@
     </row>
     <row r="39" spans="1:6" hidden="1">
       <c r="A39" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B39" s="4">
         <v>1301140298</v>
@@ -2911,7 +2913,7 @@
         <v>1301162741</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E48">
         <v>1301160186</v>
@@ -4603,7 +4605,7 @@
         <v>1301154425</v>
       </c>
       <c r="D142" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E142">
         <v>1301160784</v>
@@ -4621,7 +4623,7 @@
         <v>1301164364</v>
       </c>
       <c r="D143" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E143">
         <v>1301164311</v>
@@ -6151,7 +6153,7 @@
         <v>1301164396</v>
       </c>
       <c r="D228" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E228">
         <v>1301160103</v>
@@ -6955,7 +6957,7 @@
     </row>
     <row r="273" spans="1:6" hidden="1">
       <c r="D273" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E273" s="10">
         <v>1301140298</v>
@@ -6967,68 +6969,68 @@
     </row>
     <row r="285" spans="1:6">
       <c r="A285" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B285">
         <v>1301164045</v>
       </c>
       <c r="C285" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="286" spans="1:6">
       <c r="A286" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B286">
         <v>1301164036</v>
       </c>
       <c r="C286" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="287" spans="1:6">
       <c r="A287" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B287">
         <v>1301160186</v>
       </c>
       <c r="C287" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="288" spans="1:6">
       <c r="A288" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B288">
         <v>1301160784</v>
       </c>
       <c r="C288" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B289">
         <v>1301164311</v>
       </c>
       <c r="C289" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B290">
         <v>1301160103</v>
       </c>
       <c r="C290" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
